--- a/public/excel/upload-dosen.xlsx
+++ b/public/excel/upload-dosen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/monitoring-kuliah/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6400300A-2D66-AA4E-BEC9-096C9263147F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D90A56-91C2-F446-8B28-EDE0BA08BC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{5CCF4C5B-D750-EE45-A83C-403667C749A8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>NIDN</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>Program Studi</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>laki-laki</t>
+  </si>
+  <si>
+    <t>perempuan</t>
   </si>
 </sst>
 </file>
@@ -103,11 +112,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,20 +433,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E876B9E-36FD-3041-B6A8-5D9C1344CC45}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,13 +457,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{166887EF-4E62-934D-9C27-6EB02603ACF8}">
+      <formula1>$J$4:$J$5</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>